--- a/projects/opioids-eastern-iowa/data/03_newborns_exposed_2010-14.xlsx
+++ b/projects/opioids-eastern-iowa/data/03_newborns_exposed_2010-14.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
-    <t>Noxious influences affecting fetus or newborn via placenta or breast milk</t>
+    <t>Here’s some data from the Iowa Hospital Association on drug-exposed newborns. Note, this is for all drugs not just heroin or opioids and it also includes alcohol.</t>
   </si>
   <si>
-    <t>Here’s some data from the Iowa Hospital Association on drug-exposed newborns. Note, this is for all drugs not just heroin or opioids and it also includes alcohol.</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Newsborn affected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,14 +94,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -353,7 +384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -361,24 +392,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
@@ -386,7 +419,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
@@ -394,7 +427,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2012</v>
       </c>
@@ -402,7 +435,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
@@ -410,7 +443,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -418,13 +451,54 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2011</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2012</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2013</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>299</v>
+      </c>
+      <c r="C11" s="1">
+        <v>264</v>
+      </c>
+      <c r="D11" s="1">
+        <v>308</v>
+      </c>
+      <c r="E11" s="1">
+        <v>389</v>
+      </c>
+      <c r="F11" s="1">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
